--- a/plots/cifar10_densenets_accuracy.xlsx
+++ b/plots/cifar10_densenets_accuracy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\xilinx-zcu102-power\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF5E6B-3AC0-4A31-B20B-BC24F654D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A593C-BC9D-4EF9-9036-218CA0EEBD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="8170" xr2:uid="{F6C0ABC7-5DD7-42A7-B092-7C8A4F0F14D4}"/>
+    <workbookView xWindow="1920" yWindow="2450" windowWidth="17280" windowHeight="8830" xr2:uid="{F6C0ABC7-5DD7-42A7-B092-7C8A4F0F14D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,7 +606,7 @@
         <v>0.80930000000000002</v>
       </c>
       <c r="F5">
-        <v>0.8115</v>
+        <v>0.8165</v>
       </c>
       <c r="G5">
         <v>0.80169999999999997</v>
